--- a/file_export/danhsach_trichngang_form.xlsx
+++ b/file_export/danhsach_trichngang_form.xlsx
@@ -19,12 +19,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Ds CVC trở lên'!$8:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'DS TOÀN THỂ CB'!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>TT</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>DANH SÁCH TRÍCH NGANG</t>
-  </si>
-  <si>
-    <t>CÁN BỘ, CÔNG CHỨC, VIÊN CHỨC, NGƯỜI LAO ĐỘNG CƠ QUAN TRUNG ƯƠNG ĐOÀN</t>
   </si>
   <si>
     <t>-----</t>
@@ -142,12 +139,23 @@
     <t>CÁN BỘ HIỆN HƯỞNG LƯƠNG NGẠCH CHUYÊN VIÊN CHÍNH,
  CHUYÊN VIÊN CAO CẤP VÀ TƯƠNG ĐƯƠNG</t>
   </si>
+  <si>
+    <t xml:space="preserve">TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GTVT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỘ GIAO THÔNG VẬN TẢI
+</t>
+  </si>
+  <si>
+    <t>CÁN BỘ, CÔNG CHỨC, VIÊN CHỨC, NGƯỜI LAO ĐỘNG CƠ QUAN TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GTVT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -372,101 +380,107 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,10 +789,10 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A5:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="40.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.875" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="4" customWidth="1"/>
@@ -797,88 +811,88 @@
     <col min="17" max="17" width="5.125" style="10" customWidth="1"/>
     <col min="18" max="18" width="5.25" style="10" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="10" customWidth="1"/>
-    <col min="20" max="20" width="12.375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="15.5" style="10" customWidth="1"/>
     <col min="21" max="26" width="6.25" style="10" customWidth="1"/>
     <col min="27" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" spans="1:26" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+    <row r="1" spans="1:26" ht="30.75" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="2" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:26" ht="27" customHeight="1">
+      <c r="B3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:26" ht="28.5" customHeight="1">
+      <c r="A4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -886,29 +900,29 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
+    <row r="5" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -916,29 +930,29 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
+    <row r="6" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -946,67 +960,67 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:26" s="8" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+    <row r="7" spans="1:26" ht="25.5" customHeight="1"/>
+    <row r="8" spans="1:26" s="8" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="17" t="s">
+      <c r="J8" s="43"/>
+      <c r="K8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="19" t="s">
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="21"/>
-    </row>
-    <row r="9" spans="1:26" s="8" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="31"/>
+    </row>
+    <row r="9" spans="1:26" s="8" customFormat="1" ht="57" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1014,19 +1028,19 @@
         <v>5</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1061,9 +1075,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="6" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="37"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1091,6 +1105,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="O1:T2"/>
@@ -1107,10 +1125,6 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1132,7 +1146,7 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="40.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.875" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="4" customWidth="1"/>
@@ -1156,185 +1170,185 @@
     <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:20" ht="23.25" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="31" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-    </row>
-    <row r="3" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="2" spans="1:20" ht="11.25" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:20" ht="22.5" customHeight="1">
+      <c r="B3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:20" ht="21" customHeight="1">
+      <c r="A4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-    </row>
-    <row r="5" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:20" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" ht="39" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:20" s="8" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="17" t="s">
+      <c r="J8" s="43"/>
+      <c r="K8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" spans="1:20" s="8" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" s="8" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1342,19 +1356,19 @@
         <v>5</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1371,9 +1385,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="6" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="37"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1395,11 +1409,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="O1:T2"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B3:I3"/>
@@ -1414,6 +1423,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23499999999999999" right="0.15666666666666668" top="0.36" bottom="0.26" header="0.2" footer="0.16"/>
@@ -1435,7 +1449,7 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="40.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.875" style="8" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
@@ -1459,199 +1473,199 @@
     <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:32" ht="26.25" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="31" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" spans="1:32" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-    </row>
-    <row r="3" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="2" spans="1:32" ht="14.25" hidden="1" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:32" ht="18" customHeight="1">
+      <c r="B3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:32" ht="23.25" customHeight="1">
+      <c r="A4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-    </row>
-    <row r="5" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:32" ht="20.25" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:32" ht="20.25" customHeight="1">
+      <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="40"/>
-    </row>
-    <row r="6" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-    </row>
-    <row r="7" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+    </row>
+    <row r="7" spans="1:32" ht="12" customHeight="1"/>
+    <row r="8" spans="1:32" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="17" t="s">
+      <c r="J8" s="43"/>
+      <c r="K8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="21"/>
-      <c r="V8" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
+      <c r="V8" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+    </row>
+    <row r="9" spans="1:32" s="8" customFormat="1" ht="75" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1659,19 +1673,19 @@
         <v>5</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1687,21 +1701,21 @@
       <c r="T9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-    </row>
-    <row r="10" spans="1:32" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+    </row>
+    <row r="10" spans="1:32" s="6" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="37"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1720,118 +1734,108 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-    </row>
-    <row r="11" spans="1:32" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-    </row>
-    <row r="12" spans="1:32" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-    </row>
-    <row r="13" spans="1:32" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+    </row>
+    <row r="11" spans="1:32" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+    </row>
+    <row r="12" spans="1:32" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+    </row>
+    <row r="13" spans="1:32" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="O1:T2"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A5:T5"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
     <mergeCell ref="V8:AF12"/>
     <mergeCell ref="A4:T4"/>
     <mergeCell ref="A8:A9"/>
@@ -1842,6 +1846,16 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="K8:K9"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="O1:T2"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A5:T5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
